--- a/ciprianmuja/evidence.xlsx
+++ b/ciprianmuja/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ciprian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6BAF08-2058-41F7-A700-23D32A3C80ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6807FD3-E39F-4637-B9B0-A6B805962D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20244" yWindow="396" windowWidth="18420" windowHeight="10488" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="43">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -143,13 +125,61 @@
   </si>
   <si>
     <t>omniflix1ql0ugfuexljdt8jqwntmhvhh9a8zvmk3n4074l</t>
+  </si>
+  <si>
+    <t>bitvalidator01</t>
+  </si>
+  <si>
+    <t>6E46C4792F5D11C97526CB2116E66EB6BCFD4630D3EBA2E5EA1C8EA27BF6BC8B</t>
+  </si>
+  <si>
+    <t>bitnft02</t>
+  </si>
+  <si>
+    <t>1C87D9308B109CB5E863305A9D506ECDB818C8FC45538C4FEBB2FD8F7FF47C43</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>D6561E3B81830C99435E10FBCDB3B40D5BA5AD5DD5CB199BEA14404F4752E233</t>
+  </si>
+  <si>
+    <t>81BB2CC4534B47B8692519948B840A7495EE924C835B0D82E64FA1E8EA4E9DB0</t>
+  </si>
+  <si>
+    <t>bitnft03</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>2A1849DA7D7E93644239F4C54EB9955993700FB679823A72C976BCDA0AB84628</t>
+  </si>
+  <si>
+    <t>ibc/68712AA7D7EFC5A9EC66BAE7156971E35AC10764A1A729354B38C11E37DEB241</t>
+  </si>
+  <si>
+    <t>90873A48D761FEA8FD7A711FDDEBBDC50C98A2127CC162C702DAFF75C2167F46</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>063514F5AFF85CF8E1EB04ACA5A4ED772AEB76BF30A60B1131573CFF9C0B71FB</t>
+  </si>
+  <si>
+    <t>wasm.juno1stv6sk0mvku34fj2mqrlyru6683866n306mfv52tlugtl322zmks26kg7a/channel-89/bitvalidator01</t>
+  </si>
+  <si>
+    <t>wasm.juno1stv6sk0mvku34fj2mqrlyru6683866n306mfv52tlugtl322zmks26kg7a/channel-24/bitvalidator01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +190,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -216,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -230,6 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,72 +574,72 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -619,13 +656,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -633,7 +670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -655,13 +692,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -669,7 +706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -691,13 +728,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -705,7 +742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -727,13 +764,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -741,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -763,13 +800,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -785,12 +822,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -809,13 +846,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,7 +860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -831,12 +868,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -855,13 +892,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,7 +906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -877,12 +914,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -901,13 +938,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -923,12 +960,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -947,13 +984,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -969,12 +1006,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -993,13 +1030,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1015,12 +1052,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1037,14 +1074,17 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,12 +1092,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1074,13 +1114,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1096,12 +1136,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1120,13 +1160,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1142,12 +1182,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1166,22 +1206,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1200,22 +1240,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1234,22 +1274,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1268,22 +1308,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1298,17 +1338,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1319,19 +1361,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1342,16 +1396,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1365,18 +1421,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1391,16 +1447,19 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1414,18 +1473,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1440,16 +1499,18 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,18 +1524,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1489,17 +1550,19 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1513,18 +1576,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1541,13 +1604,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1555,7 +1618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1577,13 +1640,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1591,7 +1654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>

--- a/ciprianmuja/evidence.xlsx
+++ b/ciprianmuja/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ciprian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6807FD3-E39F-4637-B9B0-A6B805962D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDBE947-672E-45B2-A9E2-80128CA5757E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20244" yWindow="396" windowWidth="18420" windowHeight="10488" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="4320" windowWidth="17295" windowHeight="8880" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,27 +58,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -169,10 +154,157 @@
     <t>063514F5AFF85CF8E1EB04ACA5A4ED772AEB76BF30A60B1131573CFF9C0B71FB</t>
   </si>
   <si>
-    <t>wasm.juno1stv6sk0mvku34fj2mqrlyru6683866n306mfv52tlugtl322zmks26kg7a/channel-89/bitvalidator01</t>
-  </si>
-  <si>
-    <t>wasm.juno1stv6sk0mvku34fj2mqrlyru6683866n306mfv52tlugtl322zmks26kg7a/channel-24/bitvalidator01</t>
+    <t>bitnftA1</t>
+  </si>
+  <si>
+    <t>bitnftA2</t>
+  </si>
+  <si>
+    <t>bitnftA3</t>
+  </si>
+  <si>
+    <t>ibc/49927547F077A7016B782712EC0010CAB050F2A98C5B51C1A4C5979C8EE08119</t>
+  </si>
+  <si>
+    <t>ibc/988DDCB19A4853FBCC417053D5B6F4897A12280CD01F2AE48DFB3DC90049E919</t>
+  </si>
+  <si>
+    <t>ibc/80AAEEF828784701C5A1A7FCD3F0A2550908FB6B1F638F410239A5C62689340F</t>
+  </si>
+  <si>
+    <t>bitnftA4</t>
+  </si>
+  <si>
+    <t>ibc/8FDD60648AC59447A931C2EDF915430C1DA546DBF78A2A71C0C5292E42996489</t>
+  </si>
+  <si>
+    <t>bitnftA5</t>
+  </si>
+  <si>
+    <t>bitnftA6</t>
+  </si>
+  <si>
+    <t>juno1dw3uzxcuvxd299mhc5csvu28qtetzsmn6p9smqu6hw6pqvgvlw5q2wdpdm</t>
+  </si>
+  <si>
+    <t>ibc/B8E99BCBDA8FA8E7728A7E838CCF20936CEF2B31EAF68EB4BDF000A87BADE87A</t>
+  </si>
+  <si>
+    <t>ibc/AB70D15CE0EDDF4CAB302D3493F2046F3CEBD951FD2D9C4F1A11DEB1B1DA702C</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>0E9431BF006F8C39265E12ED70FDAE5B57C18DC4C66A23250CC15E02CF3544F0</t>
+  </si>
+  <si>
+    <t>1880FE2773EB109EF848D0DBC3BA3C452C72520615C229570673351BEE10CFE1</t>
+  </si>
+  <si>
+    <t>E003940673CC0E071C91D4840C74365EA8CBCA541D81CA49E24F75831612C035</t>
+  </si>
+  <si>
+    <t>51C2DABF3D4BA85CE2B843C9FD482A33214CB3B506CCD004B6A7D1F8DECAE4F5</t>
+  </si>
+  <si>
+    <t>CAB4A076C039D380AD04A32EC8B8F2DD47DAE6AE0A80B3CEE37F2407BF00242A</t>
+  </si>
+  <si>
+    <t>284611855629488D578AD8E9D9634B261234A7C0F3B092BDD8C4919B847D1F61</t>
+  </si>
+  <si>
+    <t>B9ADDA6A392557BECADDC2AE3CB563B1A71D256853357AC254F6C0ECA042AF32</t>
+  </si>
+  <si>
+    <t>D339CA0E8DC7D82D81ACFA93DF4436042C9BD5591E64291CD5B8335E891E6E2E</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>0C79A5658531D496C4CC17009D3225123AC4BB20D817DDC6DA7C6B083DD46FD8</t>
+  </si>
+  <si>
+    <t>EF62DCD6C0AC8C7C2FC471DD7F1D368ACA779CD5B5ACDC549043A2755267D5E5</t>
+  </si>
+  <si>
+    <t>2B12530B88DD36F1B7E68AEC6FCB3BDB5A57D7E60D2BF82C72607806FE9A22D9</t>
+  </si>
+  <si>
+    <t>FAEFBD5964FC2EF61422EFD411DB48EDA38AC20F9BC55EC9DFF4B94CF4F729CA</t>
+  </si>
+  <si>
+    <t>91EA32827402117E169783EC5B5C8C11A667CF0D2187F1E6113760A3E79AC2C3</t>
+  </si>
+  <si>
+    <t>BC5515FD7F730236AF67615D7437E2ED46FBA0116771F46B4494779A5DA2A261</t>
+  </si>
+  <si>
+    <t>1C87F81E9BA5CB72CD780365A35871B2BC01A5D6E45D24B8974D2D676C1F0EC3</t>
+  </si>
+  <si>
+    <t>47FCDD587B441A41FB68D13AD279BAB15B65BC65A40619BE16F373890A2E8D99</t>
+  </si>
+  <si>
+    <t>7192F1551A693C9B4552F2E78C19BCE88F1721266E0A89E792006944B39A3C68</t>
+  </si>
+  <si>
+    <t>3BB9991E8A73A01BCB80586B2C855B61F1389C9235D1EA248F717409B6E2AA8C</t>
+  </si>
+  <si>
+    <t>CB58289B932CCFC58A3BE1C8390CF8651F1007D5DAB03B50430550941AB51480</t>
+  </si>
+  <si>
+    <t>6C4CC6675CE941C2D9AB0728EFC2AB72A0F463705850443AAAC6D12607EC3A21</t>
+  </si>
+  <si>
+    <t>1483C25A3D1F678855CE8CB4A550C515012F50D25CE43B85E35962013C402ED9</t>
+  </si>
+  <si>
+    <t>324592A0DD216DF03B309CCEDFE3C4D39BF09B7D1C6C10FBC370DCF59DD5FC3C</t>
+  </si>
+  <si>
+    <t>F36057DEBC8D47B3B92CDA788770C75BAA0E7446BA80849C468177FF9AF27B8D</t>
+  </si>
+  <si>
+    <t>2DD7B70DBF98D26BAA5AA3EFD8EB0ED6686754E721F1D97793114FD575B000BD</t>
+  </si>
+  <si>
+    <t>C9972E76BB92BE23AD4B121A4C1955176218F75B5EE0CD3E649907DE32069F20</t>
+  </si>
+  <si>
+    <t>B7C58EF675524E5A1C7E0F29929FE9961AA4716F5BE05A8BB05774F907AF0C5C</t>
+  </si>
+  <si>
+    <t>6BF14452DB528DB938A0B68F2C4E0725574B2D072183E131CF00237C921AEA20</t>
+  </si>
+  <si>
+    <t>BE281A47935A9C98F878FD8B949E2D5E3ACCF38B9DE5BADDD5FFCCF991AC1BA6</t>
+  </si>
+  <si>
+    <t>8C4F3898E6072BEC0128E1CA3D340424EDD41D184E839130206A8F921E6020F3</t>
+  </si>
+  <si>
+    <t>AF0665BA01941000088F4884FC28BEC0B5345B171A42504EF8FC397BCE6BD3C9</t>
+  </si>
+  <si>
+    <t>9A6C30D10131E969B7EAC2AB7B2DEB8405D2708F5686A6FE992C2D2F716A5109</t>
+  </si>
+  <si>
+    <t>4A304D80EE183B8EED0819FA019DD7DC0FE06E9557F3A7705FCA6CF4070C1A0C</t>
+  </si>
+  <si>
+    <t>68ACF5772A8621FA6D412416B9A082720A357BA5F7B086BB4213DAD9D7131D07</t>
+  </si>
+  <si>
+    <t>B2520C224EEACE5ED5854B0013D91297F5B946EDF089E8411DF5D7051CA56397</t>
+  </si>
+  <si>
+    <t>3AB3B6D798959389AA0581039C8DA3A08097A26F5FFE9249B6473A43371E42B0</t>
+  </si>
+  <si>
+    <t>8C2C78290B0D28BEA473663FB0C3F349ABE49E8ABC22C0E7D648A0C905BF5235</t>
   </si>
 </sst>
 </file>
@@ -252,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -267,6 +399,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,54 +727,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +789,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -664,18 +801,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +827,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -700,18 +839,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +865,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -736,18 +877,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -762,7 +903,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -772,18 +915,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -796,9 +939,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -815,25 +960,40 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -842,9 +1002,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -862,24 +1024,39 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>55</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>56</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -888,9 +1065,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -908,20 +1087,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -934,9 +1127,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -954,24 +1149,39 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -980,9 +1190,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1000,24 +1212,39 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1026,9 +1253,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1046,20 +1275,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1089,15 +1332,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1110,9 +1353,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1130,20 +1375,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1156,9 +1431,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1176,20 +1453,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1355,32 +1662,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1397,7 +1704,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1423,16 +1730,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1448,7 +1755,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1475,16 +1782,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1500,7 +1807,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1526,16 +1833,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1550,7 +1857,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1567,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1578,89 +1885,93 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ciprianmuja/evidence.xlsx
+++ b/ciprianmuja/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ciprian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDBE947-672E-45B2-A9E2-80128CA5757E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964026B6-3D4E-4D5C-919C-00F9260BE971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="4320" windowWidth="17295" windowHeight="8880" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5136" yWindow="2628" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -713,19 +713,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="4" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" style="4" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="7" max="7" width="24.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -751,7 +751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -793,13 +793,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -807,7 +807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -831,13 +831,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -845,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -869,13 +869,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -883,7 +883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -907,13 +907,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -921,7 +921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -945,13 +945,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,7 +959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
@@ -967,7 +967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -975,7 +975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
@@ -983,7 +983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -1008,13 +1008,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
@@ -1071,13 +1071,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1133,13 +1133,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>65</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
@@ -1196,13 +1196,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -1259,13 +1259,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>72</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
@@ -1318,16 +1318,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="80.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1359,13 +1359,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
@@ -1433,17 +1433,17 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>85</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>86</v>
       </c>
@@ -1513,22 +1513,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1547,22 +1547,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1581,22 +1581,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1615,22 +1615,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1647,17 +1647,17 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1707,14 +1707,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" customWidth="1"/>
-    <col min="3" max="4" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="49.44140625" customWidth="1"/>
+    <col min="3" max="4" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1755,18 +1755,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1807,17 +1807,17 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1858,18 +1858,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1913,13 +1913,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1951,13 +1951,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>

--- a/ciprianmuja/evidence.xlsx
+++ b/ciprianmuja/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ciprian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964026B6-3D4E-4D5C-919C-00F9260BE971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655E996B-1D1D-4625-8451-8B4CE6929B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5136" yWindow="2628" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11235" firstSheet="10" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="89">
   <si>
     <t>TxHash</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>8C2C78290B0D28BEA473663FB0C3F349ABE49E8ABC22C0E7D648A0C905BF5235</t>
+  </si>
+  <si>
+    <t>EF8B46C4EFF8153F58EBDAE3890FC0F51162C1235EEE40B001B9BF77E9919CAD</t>
+  </si>
+  <si>
+    <t>E613F3C6445821E3C8465A09941F3153870B0876CB3EAEA970AD3D903CB5CC02</t>
   </si>
 </sst>
 </file>
@@ -713,19 +719,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" style="4" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -751,7 +757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -793,13 +799,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -807,7 +813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -831,13 +837,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -845,7 +851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -869,13 +875,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -883,7 +889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -907,13 +913,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -921,7 +927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -945,13 +951,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
@@ -967,7 +973,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -975,7 +981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
@@ -983,7 +989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -1008,13 +1014,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
@@ -1071,13 +1077,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -1101,7 +1107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1133,13 +1139,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
@@ -1163,7 +1169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>65</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
@@ -1196,13 +1202,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
@@ -1218,7 +1224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -1226,7 +1232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -1234,7 +1240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -1259,13 +1265,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
@@ -1281,7 +1287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>72</v>
       </c>
@@ -1289,7 +1295,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
@@ -1297,7 +1303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
@@ -1321,13 +1327,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="80.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1359,13 +1365,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
@@ -1405,7 +1411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
@@ -1437,13 +1443,13 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -1459,7 +1465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
@@ -1475,7 +1481,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>85</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>86</v>
       </c>
@@ -1511,24 +1517,26 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1545,24 +1553,60 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1572,8 +1616,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1581,22 +1625,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1606,40 +1650,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
@@ -1647,17 +1657,17 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +1678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1679,7 +1689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1707,14 +1717,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="49.44140625" customWidth="1"/>
-    <col min="3" max="4" width="14.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1758,15 +1768,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1780,7 +1790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1810,14 +1820,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1831,7 +1841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1861,15 +1871,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1883,7 +1893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1913,13 +1923,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1927,7 +1937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1951,13 +1961,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1965,7 +1975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>

--- a/ciprianmuja/evidence.xlsx
+++ b/ciprianmuja/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ciprian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655E996B-1D1D-4625-8451-8B4CE6929B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5DD8B9-DAD3-4CBE-9562-7FFBD2E5EB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11235" firstSheet="10" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="2364" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -719,19 +719,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="4" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" style="4" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="7" max="7" width="24.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -757,7 +757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -796,24 +796,24 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>38</v>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -837,13 +837,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -851,7 +851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -875,13 +875,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -889,7 +889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -913,13 +913,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -927,7 +927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -951,13 +951,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
@@ -973,7 +973,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -981,7 +981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
@@ -989,7 +989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -1014,13 +1014,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
@@ -1077,13 +1077,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1139,13 +1139,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>65</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
@@ -1202,13 +1202,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -1265,13 +1265,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>72</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
@@ -1327,13 +1327,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="80.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1365,13 +1365,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
@@ -1443,13 +1443,13 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>85</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>86</v>
       </c>
@@ -1521,22 +1521,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1553,26 +1553,26 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -1591,22 +1591,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1625,22 +1625,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1661,13 +1661,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1717,14 +1717,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" customWidth="1"/>
-    <col min="3" max="4" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="49.44140625" customWidth="1"/>
+    <col min="3" max="4" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1768,15 +1768,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1817,17 +1817,17 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1867,19 +1867,19 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1923,13 +1923,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1958,16 +1958,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>

--- a/ciprianmuja/evidence.xlsx
+++ b/ciprianmuja/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ciprian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5DD8B9-DAD3-4CBE-9562-7FFBD2E5EB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7082B820-9A7F-40C2-B4B9-12D81D106215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2364" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="2175" windowWidth="21600" windowHeight="11235" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>TxHash</t>
   </si>
@@ -311,6 +312,24 @@
   </si>
   <si>
     <t>E613F3C6445821E3C8465A09941F3153870B0876CB3EAEA970AD3D903CB5CC02</t>
+  </si>
+  <si>
+    <t>816CD3E57DB3E87F69182508900A9AC9FBAF4BDE8AC22617DAF6E1DF35415696</t>
+  </si>
+  <si>
+    <t>3D34CFB964FE545201F3BF4E0BC32572224118486929F775192EC497D78D5288</t>
+  </si>
+  <si>
+    <t>3D07FDCEC420B8C633882958C777250ABFE0C238816B50263768C456D14E150E</t>
+  </si>
+  <si>
+    <t>C4D02311DA7347747521DF50061EF8545C7C83E2699F45655DC202A237C3CD61</t>
+  </si>
+  <si>
+    <t>BF52C74AC6FB0B8665A8E8C6DBC1FD88CC4BFCC978FF3CD4FA149066E4EFD2D6</t>
+  </si>
+  <si>
+    <t>C71738643F2E198D9116197CB4B1A9175EC7CB1EDE487788AF6F3F2181F5D0B5</t>
   </si>
 </sst>
 </file>
@@ -719,19 +738,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" style="4" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -757,7 +776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -799,13 +818,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,7 +832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -837,13 +856,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -851,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -875,13 +894,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -889,7 +908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -913,13 +932,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -927,7 +946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -951,13 +970,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>50</v>
       </c>
@@ -973,7 +992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -981,7 +1000,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
@@ -989,7 +1008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -1014,13 +1033,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
@@ -1036,7 +1055,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
@@ -1044,7 +1063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -1052,7 +1071,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
@@ -1077,13 +1096,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1099,7 +1118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -1107,7 +1126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
@@ -1115,7 +1134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1139,13 +1158,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
@@ -1161,7 +1180,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
@@ -1169,7 +1188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>65</v>
       </c>
@@ -1177,7 +1196,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
@@ -1202,13 +1221,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
@@ -1224,7 +1243,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -1232,7 +1251,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -1240,7 +1259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -1265,13 +1284,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
@@ -1287,7 +1306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>72</v>
       </c>
@@ -1295,7 +1314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
@@ -1303,7 +1322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
@@ -1327,13 +1346,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="80.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1365,13 +1384,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
@@ -1387,7 +1406,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -1395,7 +1414,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
@@ -1403,7 +1422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
@@ -1411,7 +1430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
@@ -1419,7 +1438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
@@ -1443,13 +1462,13 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +1476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -1465,7 +1484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -1473,7 +1492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
@@ -1481,7 +1500,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
@@ -1489,7 +1508,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>85</v>
       </c>
@@ -1497,7 +1516,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>86</v>
       </c>
@@ -1517,26 +1536,26 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1557,22 +1576,22 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -1589,26 +1608,28 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1623,26 +1644,58 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724CDFA2-DE88-4653-9743-513711DEEB6C}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1661,13 +1714,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +1731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1689,7 +1742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1717,14 +1770,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="49.44140625" customWidth="1"/>
-    <col min="3" max="4" width="14.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +1791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1768,15 +1821,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1820,14 +1873,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1841,7 +1894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1867,19 +1920,19 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +1946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1923,13 +1976,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1937,7 +1990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1961,13 +2014,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1975,7 +2028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>

--- a/ciprianmuja/evidence.xlsx
+++ b/ciprianmuja/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ciprian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7082B820-9A7F-40C2-B4B9-12D81D106215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940890AF-AE61-43B9-9CE9-FE3506CC408F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="2175" windowWidth="21600" windowHeight="11235" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -119,60 +119,21 @@
     <t>6E46C4792F5D11C97526CB2116E66EB6BCFD4630D3EBA2E5EA1C8EA27BF6BC8B</t>
   </si>
   <si>
-    <t>bitnft02</t>
-  </si>
-  <si>
-    <t>1C87D9308B109CB5E863305A9D506ECDB818C8FC45538C4FEBB2FD8F7FF47C43</t>
-  </si>
-  <si>
     <t>uni-6</t>
   </si>
   <si>
-    <t>D6561E3B81830C99435E10FBCDB3B40D5BA5AD5DD5CB199BEA14404F4752E233</t>
-  </si>
-  <si>
-    <t>81BB2CC4534B47B8692519948B840A7495EE924C835B0D82E64FA1E8EA4E9DB0</t>
-  </si>
-  <si>
-    <t>bitnft03</t>
-  </si>
-  <si>
     <t>uptick_7000-2</t>
   </si>
   <si>
-    <t>2A1849DA7D7E93644239F4C54EB9955993700FB679823A72C976BCDA0AB84628</t>
-  </si>
-  <si>
     <t>ibc/68712AA7D7EFC5A9EC66BAE7156971E35AC10764A1A729354B38C11E37DEB241</t>
   </si>
   <si>
-    <t>90873A48D761FEA8FD7A711FDDEBBDC50C98A2127CC162C702DAFF75C2167F46</t>
-  </si>
-  <si>
     <t>gon-irishub-1</t>
   </si>
   <si>
-    <t>063514F5AFF85CF8E1EB04ACA5A4ED772AEB76BF30A60B1131573CFF9C0B71FB</t>
-  </si>
-  <si>
-    <t>bitnftA1</t>
-  </si>
-  <si>
-    <t>bitnftA2</t>
-  </si>
-  <si>
-    <t>bitnftA3</t>
-  </si>
-  <si>
-    <t>ibc/49927547F077A7016B782712EC0010CAB050F2A98C5B51C1A4C5979C8EE08119</t>
-  </si>
-  <si>
     <t>ibc/988DDCB19A4853FBCC417053D5B6F4897A12280CD01F2AE48DFB3DC90049E919</t>
   </si>
   <si>
-    <t>ibc/80AAEEF828784701C5A1A7FCD3F0A2550908FB6B1F638F410239A5C62689340F</t>
-  </si>
-  <si>
     <t>bitnftA4</t>
   </si>
   <si>
@@ -330,6 +291,45 @@
   </si>
   <si>
     <t>C71738643F2E198D9116197CB4B1A9175EC7CB1EDE487788AF6F3F2181F5D0B5</t>
+  </si>
+  <si>
+    <t>7A420944752E5D7CBA43038970922CF5E360646D8E61C9ECE1FF6D255AD6306F</t>
+  </si>
+  <si>
+    <t>bitnft04</t>
+  </si>
+  <si>
+    <t>bitnft05</t>
+  </si>
+  <si>
+    <t>B99B1D116C8CE4BD7BF1A2F5BFB0CE864F86D5A117D5F4405892730ED01797C2</t>
+  </si>
+  <si>
+    <t>E232A3DF4CE8B43BCD6358D6E4BCECD4A4A7072A0E3F5140DEB5CE05779803CF</t>
+  </si>
+  <si>
+    <t>A5E73C9A0564AF77D49C96960DC4C79BB454B0B696ECBBC9202D37C1BEC782A8</t>
+  </si>
+  <si>
+    <t>6DB386B4B4004857DE56E4FFA09C973B96CFF0564DF503CD57580A09DD5C1B2E</t>
+  </si>
+  <si>
+    <t>77088C7E3E24512A4345CD2E4B3BBC696B206D18C189174204424524292932F1</t>
+  </si>
+  <si>
+    <t>bitnftAA1</t>
+  </si>
+  <si>
+    <t>ibc/FFD856EE7E1B2667EAEB842CED3A0AD20E91A413797911E511432A50A44A21E4</t>
+  </si>
+  <si>
+    <t>bitnftAA2</t>
+  </si>
+  <si>
+    <t>ibc/63716FDC4A79D0597F5465419D3DFA61C9514B8374B34620CEFFCC7548EEEB81</t>
+  </si>
+  <si>
+    <t>bitnftAA3</t>
   </si>
 </sst>
 </file>
@@ -738,19 +738,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="4" customWidth="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" style="4" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="7" max="7" width="24.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -776,7 +776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -815,16 +815,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -832,12 +832,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -856,13 +856,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -870,12 +870,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -894,13 +894,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -908,12 +908,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -932,13 +932,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,12 +946,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -970,13 +970,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -984,36 +984,224 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>49</v>
+      <c r="B5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1022,24 +1210,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,36 +1235,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
+      <c r="B5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1085,24 +1273,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,61 +1298,99 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,62 +1398,77 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,293 +1476,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>67</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="80.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="B7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1536,26 +1536,26 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1576,24 +1576,24 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1608,28 +1608,28 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1648,24 +1648,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1681,21 +1681,21 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1711,16 +1711,16 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1731,26 +1731,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1767,17 +1767,17 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" customWidth="1"/>
-    <col min="3" max="4" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="49.44140625" customWidth="1"/>
+    <col min="3" max="4" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1791,18 +1791,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1818,18 +1818,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1843,18 +1843,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1870,17 +1870,17 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1894,18 +1894,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1921,18 +1921,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1946,18 +1946,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1973,16 +1973,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1990,12 +1990,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2011,16 +2011,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2028,12 +2028,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
